--- a/2016日记账.xlsx
+++ b/2016日记账.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="233">
   <si>
     <t>入职啦！</t>
   </si>
@@ -1209,6 +1209,10 @@
   </si>
   <si>
     <t>看精算师报名时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>git</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2647,7 +2651,7 @@
       <c r="C2" s="73"/>
       <c r="D2" s="7">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42753</v>
+        <v>42754</v>
       </c>
       <c r="I2" s="14"/>
     </row>
@@ -2659,7 +2663,7 @@
       <c r="C3" s="73"/>
       <c r="D3" s="8">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.63850671295949724</v>
+        <v>0.38435000000026776</v>
       </c>
       <c r="I3" s="14"/>
     </row>
@@ -2714,7 +2718,7 @@
       </c>
       <c r="N6" s="15">
         <f ca="1">NOW()</f>
-        <v>42753.638506712959</v>
+        <v>42754.38435</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -2729,7 +2733,7 @@
       </c>
       <c r="N7" s="15">
         <f ca="1">ROUNDDOWN(N6,0)</f>
-        <v>42753</v>
+        <v>42754</v>
       </c>
       <c r="O7" s="1">
         <f>ROUNDDOWN(O6,0)</f>
@@ -3535,7 +3539,7 @@
       <c r="C2" s="73"/>
       <c r="D2" s="34">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42753</v>
+        <v>42754</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>113</v>
@@ -3564,11 +3568,11 @@
       <c r="C3" s="73"/>
       <c r="D3" s="35">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.63850671295949724</v>
+        <v>0.38435000000026776</v>
       </c>
       <c r="E3" s="47">
         <f ca="1">E4-$D$2</f>
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F3" s="4">
         <f>SUM(学习任务!E:E)</f>
@@ -3576,11 +3580,11 @@
       </c>
       <c r="G3" s="47">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -3589,7 +3593,7 @@
       </c>
       <c r="F4" s="44">
         <f ca="1">$D$2+F3</f>
-        <v>44305.039215686273</v>
+        <v>44306.039215686273</v>
       </c>
       <c r="G4" s="46">
         <v>42762</v>
@@ -5038,7 +5042,7 @@
       <c r="C2" s="73"/>
       <c r="D2" s="7">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42753</v>
+        <v>42754</v>
       </c>
       <c r="I2" s="14"/>
     </row>
@@ -5050,7 +5054,7 @@
       <c r="C3" s="73"/>
       <c r="D3" s="8">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.63850671295949724</v>
+        <v>0.38435000000026776</v>
       </c>
       <c r="I3" s="14"/>
     </row>
@@ -5099,7 +5103,7 @@
       </c>
       <c r="N6" s="15">
         <f ca="1">NOW()</f>
-        <v>42753.638506712959</v>
+        <v>42754.38435</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -5108,7 +5112,7 @@
       </c>
       <c r="N7" s="15">
         <f ca="1">ROUNDDOWN(N6,0)</f>
-        <v>42753</v>
+        <v>42754</v>
       </c>
       <c r="O7" s="1">
         <f>ROUNDDOWN(O6,0)</f>
@@ -5551,7 +5555,7 @@
       <c r="C2" s="81"/>
       <c r="D2" s="22">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42753</v>
+        <v>42754</v>
       </c>
       <c r="I2" s="28"/>
     </row>
@@ -5563,7 +5567,7 @@
       <c r="C3" s="81"/>
       <c r="D3" s="23">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.63850671295949724</v>
+        <v>0.38435000000026776</v>
       </c>
       <c r="I3" s="28"/>
     </row>
@@ -5618,7 +5622,7 @@
       </c>
       <c r="N6" s="29">
         <f ca="1">NOW()</f>
-        <v>42753.638506712959</v>
+        <v>42754.38435</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -5633,7 +5637,7 @@
       </c>
       <c r="N7" s="29">
         <f ca="1">ROUNDDOWN(N6,0)</f>
-        <v>42753</v>
+        <v>42754</v>
       </c>
       <c r="O7" s="17">
         <f>ROUNDDOWN(O6,0)</f>
@@ -6193,7 +6197,7 @@
       <c r="C2" s="73"/>
       <c r="D2" s="7">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42753</v>
+        <v>42754</v>
       </c>
       <c r="I2" s="14"/>
     </row>
@@ -6205,7 +6209,7 @@
       <c r="C3" s="73"/>
       <c r="D3" s="8">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.63850671295949724</v>
+        <v>0.38435000000026776</v>
       </c>
       <c r="I3" s="14"/>
     </row>
@@ -6260,7 +6264,7 @@
       </c>
       <c r="N6" s="15">
         <f ca="1">NOW()</f>
-        <v>42753.638506712959</v>
+        <v>42754.38435</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -6275,7 +6279,7 @@
       </c>
       <c r="N7" s="15">
         <f ca="1">ROUNDDOWN(N6,0)</f>
-        <v>42753</v>
+        <v>42754</v>
       </c>
       <c r="O7" s="1">
         <f>ROUNDDOWN(O6,0)</f>
@@ -6780,7 +6784,7 @@
       <c r="C2" s="73"/>
       <c r="D2" s="7">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42753</v>
+        <v>42754</v>
       </c>
       <c r="I2" s="14"/>
     </row>
@@ -6792,7 +6796,7 @@
       <c r="C3" s="73"/>
       <c r="D3" s="8">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.63850671295949724</v>
+        <v>0.38435000000026776</v>
       </c>
       <c r="I3" s="14"/>
     </row>
@@ -6847,7 +6851,7 @@
       </c>
       <c r="N6" s="15">
         <f ca="1">NOW()</f>
-        <v>42753.638506712959</v>
+        <v>42754.38435</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
@@ -6862,7 +6866,7 @@
       </c>
       <c r="N7" s="15">
         <f ca="1">ROUNDDOWN(N6,0)</f>
-        <v>42753</v>
+        <v>42754</v>
       </c>
       <c r="O7" s="1">
         <f>ROUNDDOWN(O6,0)</f>
@@ -7358,7 +7362,7 @@
       <c r="C2" s="73"/>
       <c r="D2" s="34">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42753</v>
+        <v>42754</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -7369,11 +7373,11 @@
       <c r="C3" s="73"/>
       <c r="D3" s="35">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.63850671295949724</v>
+        <v>0.38435000000026776</v>
       </c>
       <c r="E3" s="33">
         <f ca="1">F3-D2</f>
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F3" s="44">
         <v>43581</v>
@@ -7890,7 +7894,7 @@
       <c r="C2" s="73"/>
       <c r="D2" s="34">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42753</v>
+        <v>42754</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>113</v>
@@ -7919,11 +7923,11 @@
       <c r="C3" s="73"/>
       <c r="D3" s="35">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.63850671295949724</v>
+        <v>0.38435000000026776</v>
       </c>
       <c r="E3" s="47">
         <f ca="1">E4-$D$2</f>
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F3" s="4">
         <f>SUM(学习任务!E:E)</f>
@@ -7931,11 +7935,11 @@
       </c>
       <c r="G3" s="47">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -8596,7 +8600,7 @@
       <c r="C2" s="73"/>
       <c r="D2" s="34">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42753</v>
+        <v>42754</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>113</v>
@@ -8625,11 +8629,11 @@
       <c r="C3" s="73"/>
       <c r="D3" s="35">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.63850671295949724</v>
+        <v>0.38435000000026776</v>
       </c>
       <c r="E3" s="47">
         <f ca="1">E4-$D$2</f>
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F3" s="4">
         <f>SUM(学习任务!E:E)</f>
@@ -8637,11 +8641,11 @@
       </c>
       <c r="G3" s="47">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -8650,7 +8654,7 @@
       </c>
       <c r="F4" s="44">
         <f ca="1">$D$2+F3</f>
-        <v>44305.039215686273</v>
+        <v>44306.039215686273</v>
       </c>
       <c r="G4" s="46">
         <v>42762</v>
@@ -9176,10 +9180,10 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9207,7 +9211,7 @@
       <c r="C2" s="73"/>
       <c r="D2" s="34">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42753</v>
+        <v>42754</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>113</v>
@@ -9236,11 +9240,11 @@
       <c r="C3" s="73"/>
       <c r="D3" s="35">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.63850671295949724</v>
+        <v>0.38435000000026776</v>
       </c>
       <c r="E3" s="47">
         <f ca="1">E4-$D$2</f>
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F3" s="4">
         <f>SUM(学习任务!E:E)</f>
@@ -9248,11 +9252,11 @@
       </c>
       <c r="G3" s="47">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -9261,7 +9265,7 @@
       </c>
       <c r="F4" s="44">
         <f ca="1">$D$2+F3</f>
-        <v>44305.039215686273</v>
+        <v>44306.039215686273</v>
       </c>
       <c r="G4" s="46">
         <v>42762</v>
@@ -9619,6 +9623,7 @@
         <v>星期六</v>
       </c>
       <c r="D31" s="41"/>
+      <c r="F31" s="31"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
@@ -9646,6 +9651,9 @@
         <v>星期一</v>
       </c>
       <c r="D33" s="36"/>
+      <c r="F33" s="31" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
@@ -9659,6 +9667,9 @@
         <f t="shared" si="2"/>
         <v>星期二</v>
       </c>
+      <c r="F34" s="31" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
@@ -9671,6 +9682,9 @@
       <c r="C35" s="1" t="str">
         <f t="shared" si="2"/>
         <v>星期三</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">

--- a/2016日记账.xlsx
+++ b/2016日记账.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PersonalFiles\plans\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guofe\Desktop\plans\plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="8925" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18403" windowHeight="8923" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="5月" sheetId="1" r:id="rId1"/>
@@ -2615,26 +2615,26 @@
       <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="4" customWidth="1"/>
-    <col min="8" max="8" width="24.625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="5" customWidth="1"/>
-    <col min="10" max="10" width="18.5" style="4" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.4609375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.15234375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.3828125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.23046875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.61328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.61328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16.765625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="24.61328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="18.4609375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="18.4609375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="8.84375" style="4" customWidth="1"/>
     <col min="12" max="12" width="9" style="4"/>
     <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="17.125" style="1"/>
+    <col min="14" max="14" width="17.15234375" style="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="30.45" x14ac:dyDescent="0.3">
       <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
@@ -2643,7 +2643,7 @@
       <c r="D1" s="6"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="71" t="s">
         <v>1</v>
       </c>
@@ -2651,11 +2651,11 @@
       <c r="C2" s="73"/>
       <c r="D2" s="7">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42754</v>
+        <v>42764</v>
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="71" t="s">
         <v>2</v>
       </c>
@@ -2663,15 +2663,15 @@
       <c r="C3" s="73"/>
       <c r="D3" s="8">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.38435000000026776</v>
+        <v>0.93522141203720821</v>
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D4" s="6"/>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I6" s="5" t="s">
         <v>13</v>
       </c>
@@ -2718,10 +2718,10 @@
       </c>
       <c r="N6" s="15">
         <f ca="1">NOW()</f>
-        <v>42754.38435</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+        <v>42764.935221412037</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I7" s="5" t="s">
         <v>16</v>
       </c>
@@ -2733,14 +2733,14 @@
       </c>
       <c r="N7" s="15">
         <f ca="1">ROUNDDOWN(N6,0)</f>
-        <v>42754</v>
+        <v>42764</v>
       </c>
       <c r="O7" s="1">
         <f>ROUNDDOWN(O6,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>42491</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>星期日</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>42492</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>星期一</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>42493</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>42494</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>42495</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>42496</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>星期五</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>42497</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>42498</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>42499</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>42500</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>42501</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>42502</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>42503</v>
       </c>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>42504</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>42505</v>
       </c>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="D24" s="75"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>42506</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>42507</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>42508</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>42509</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>42510</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>42511</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>42512</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>42513</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>42514</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>星期二</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>42515</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>42516</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>星期四</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>42517</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>42518</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>42519</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" ht="99" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>42520</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>42521</v>
       </c>
@@ -3511,27 +3511,27 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="32" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="33" customWidth="1"/>
-    <col min="6" max="7" width="24.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.84375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.23046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.3828125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.765625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="18.4609375" style="33" customWidth="1"/>
+    <col min="6" max="7" width="24.61328125" style="4" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="30.45" x14ac:dyDescent="0.3">
       <c r="A1" s="68"/>
       <c r="B1" s="69"/>
       <c r="C1" s="70"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="71" t="s">
         <v>1</v>
       </c>
@@ -3539,7 +3539,7 @@
       <c r="C2" s="73"/>
       <c r="D2" s="34">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42754</v>
+        <v>42764</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>113</v>
@@ -3560,7 +3560,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="71" t="s">
         <v>2</v>
       </c>
@@ -3568,11 +3568,11 @@
       <c r="C3" s="73"/>
       <c r="D3" s="35">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.38435000000026776</v>
+        <v>0.93522141203720821</v>
       </c>
       <c r="E3" s="47">
         <f ca="1">E4-$D$2</f>
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="F3" s="4">
         <f>SUM(学习任务!E:E)</f>
@@ -3580,20 +3580,20 @@
       </c>
       <c r="G3" s="47">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="H3" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E4" s="46">
         <v>43581</v>
       </c>
       <c r="F4" s="44">
         <f ca="1">$D$2+F3</f>
-        <v>44306.039215686273</v>
+        <v>44316.039215686273</v>
       </c>
       <c r="G4" s="46">
         <v>42762</v>
@@ -3602,7 +3602,7 @@
         <v>43006</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>42759</v>
       </c>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="G10" s="49"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>42760</v>
       </c>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="G11" s="49"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>42761</v>
       </c>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="F12" s="31"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>42762</v>
       </c>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="F13" s="31"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>42763</v>
       </c>
@@ -3697,7 +3697,7 @@
       <c r="E14" s="37"/>
       <c r="G14" s="31"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>42764</v>
       </c>
@@ -3712,7 +3712,7 @@
       <c r="E15" s="37"/>
       <c r="G15" s="31"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>42765</v>
       </c>
@@ -3728,7 +3728,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="52"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>42766</v>
       </c>
@@ -3745,7 +3745,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="51"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>42767</v>
       </c>
@@ -3760,7 +3760,7 @@
       <c r="E18" s="37"/>
       <c r="G18" s="49"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>42768</v>
       </c>
@@ -3774,7 +3774,7 @@
       </c>
       <c r="D19" s="38"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>42769</v>
       </c>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="F20" s="31"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>42770</v>
       </c>
@@ -3806,7 +3806,7 @@
       <c r="D21" s="38"/>
       <c r="F21" s="49"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>42771</v>
       </c>
@@ -3820,7 +3820,7 @@
       </c>
       <c r="D22" s="38"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>42772</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>42773</v>
       </c>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="D24" s="40"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>42774</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>星期三</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>42775</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>星期四</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>42776</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>星期五</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>42777</v>
       </c>
@@ -3903,7 +3903,7 @@
       </c>
       <c r="F28" s="49"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>42778</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>星期日</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>42779</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>星期一</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>42780</v>
       </c>
@@ -3943,7 +3943,7 @@
       </c>
       <c r="D31" s="41"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>42781</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>星期三</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>42782</v>
       </c>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="D33" s="36"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>42783</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>星期五</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>42784</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>星期六</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>42785</v>
       </c>
@@ -4012,7 +4012,7 @@
       <c r="E36" s="37"/>
       <c r="F36" s="31"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>42786</v>
       </c>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="D37" s="36"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>42787</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>星期二</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>42788</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>星期三</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>42789</v>
       </c>
@@ -4097,20 +4097,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
-    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="13.61328125" customWidth="1"/>
+    <col min="4" max="4" width="13.765625" customWidth="1"/>
+    <col min="6" max="6" width="18.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="61" t="s">
         <v>180</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>12</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>13</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>16</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>17</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>18</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>20</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>21</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>22</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>23</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>24</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>25</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="65" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" s="65" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="65">
         <v>27</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>28</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>29</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>30</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>31</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>32</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>34</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>8.0392156862745097</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>35</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>37</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>38</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>39</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>42</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>43</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>44</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>46</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>47</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>48</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>49</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>50</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>52</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>53</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>55</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>56</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>58</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>59</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>61</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>62</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>63</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>64</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>65</v>
       </c>
@@ -4990,7 +4990,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>66</v>
       </c>
@@ -5009,23 +5009,23 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="3" customWidth="1"/>
-    <col min="5" max="8" width="24.625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="5" customWidth="1"/>
-    <col min="10" max="10" width="18.5" style="4" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.4609375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.15234375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.3828125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.23046875" style="3" customWidth="1"/>
+    <col min="5" max="8" width="24.61328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="18.4609375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="18.4609375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="8.84375" style="4" customWidth="1"/>
     <col min="12" max="12" width="9" style="4"/>
     <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="17.125" style="1"/>
+    <col min="14" max="14" width="17.15234375" style="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="30.45" x14ac:dyDescent="0.3">
       <c r="A1" s="68" t="s">
         <v>63</v>
       </c>
@@ -5034,7 +5034,7 @@
       <c r="D1" s="6"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="71" t="s">
         <v>1</v>
       </c>
@@ -5042,11 +5042,11 @@
       <c r="C2" s="73"/>
       <c r="D2" s="7">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42754</v>
+        <v>42764</v>
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="71" t="s">
         <v>2</v>
       </c>
@@ -5054,15 +5054,15 @@
       <c r="C3" s="73"/>
       <c r="D3" s="8">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.38435000000026776</v>
+        <v>0.93522141203720821</v>
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D4" s="6"/>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="108" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" ht="113.15" x14ac:dyDescent="0.3">
       <c r="D6" s="30" t="s">
         <v>64</v>
       </c>
@@ -5103,23 +5103,23 @@
       </c>
       <c r="N6" s="15">
         <f ca="1">NOW()</f>
-        <v>42754.38435</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+        <v>42764.935221412037</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="N7" s="15">
         <f ca="1">ROUNDDOWN(N6,0)</f>
-        <v>42754</v>
+        <v>42764</v>
       </c>
       <c r="O7" s="1">
         <f>ROUNDDOWN(O6,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>42522</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>42523</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>42524</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>星期五</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>42525</v>
       </c>
@@ -5202,7 +5202,7 @@
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>42526</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>星期日</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>42527</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>星期一</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>42528</v>
       </c>
@@ -5245,7 +5245,7 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>42529</v>
       </c>
@@ -5262,7 +5262,7 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>42530</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>星期四</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>42531</v>
       </c>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>42532</v>
       </c>
@@ -5303,7 +5303,7 @@
       </c>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>42533</v>
       </c>
@@ -5317,7 +5317,7 @@
       </c>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>42534</v>
       </c>
@@ -5332,7 +5332,7 @@
       <c r="D22" s="11"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>42535</v>
       </c>
@@ -5346,7 +5346,7 @@
       </c>
       <c r="D23" s="74"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>42536</v>
       </c>
@@ -5360,7 +5360,7 @@
       </c>
       <c r="D24" s="75"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>42537</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>星期四</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>42538</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>星期五</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>42539</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>星期六</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>42540</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>星期日</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>42541</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>星期一</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>42542</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>星期二</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>42543</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>星期三</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>42544</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>星期四</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>42545</v>
       </c>
@@ -5522,23 +5522,23 @@
       <selection pane="bottomRight" activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="18" customWidth="1"/>
-    <col min="2" max="2" width="5.125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="19" customWidth="1"/>
-    <col min="5" max="8" width="24.625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="20" customWidth="1"/>
-    <col min="10" max="10" width="18.5" style="9" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="8.3828125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="5.15234375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="7.3828125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="16.23046875" style="19" customWidth="1"/>
+    <col min="5" max="8" width="24.61328125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="18.4609375" style="20" customWidth="1"/>
+    <col min="10" max="10" width="18.4609375" style="9" customWidth="1"/>
+    <col min="11" max="11" width="8.84375" style="9" customWidth="1"/>
     <col min="12" max="12" width="9" style="9"/>
     <col min="13" max="13" width="9" style="17"/>
-    <col min="14" max="14" width="17.125" style="17"/>
+    <col min="14" max="14" width="17.15234375" style="17"/>
     <col min="15" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="30.45" x14ac:dyDescent="0.3">
       <c r="A1" s="76" t="s">
         <v>66</v>
       </c>
@@ -5547,7 +5547,7 @@
       <c r="D1" s="21"/>
       <c r="I1" s="28"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="79" t="s">
         <v>1</v>
       </c>
@@ -5555,11 +5555,11 @@
       <c r="C2" s="81"/>
       <c r="D2" s="22">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42754</v>
+        <v>42764</v>
       </c>
       <c r="I2" s="28"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="79" t="s">
         <v>2</v>
       </c>
@@ -5567,15 +5567,15 @@
       <c r="C3" s="81"/>
       <c r="D3" s="23">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.38435000000026776</v>
+        <v>0.93522141203720821</v>
       </c>
       <c r="I3" s="28"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D4" s="21"/>
       <c r="I4" s="28"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" ht="28.3" x14ac:dyDescent="0.3">
       <c r="I6" s="20" t="s">
         <v>13</v>
       </c>
@@ -5622,10 +5622,10 @@
       </c>
       <c r="N6" s="29">
         <f ca="1">NOW()</f>
-        <v>42754.38435</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+        <v>42764.935221412037</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I7" s="20" t="s">
         <v>16</v>
       </c>
@@ -5637,14 +5637,14 @@
       </c>
       <c r="N7" s="29">
         <f ca="1">ROUNDDOWN(N6,0)</f>
-        <v>42754</v>
+        <v>42764</v>
       </c>
       <c r="O7" s="17">
         <f>ROUNDDOWN(O6,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>42546</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>星期六</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>42547</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>星期日</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>42548</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>星期一</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>42549</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>星期二</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>42550</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>星期三</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>42551</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>星期四</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>42552</v>
       </c>
@@ -5739,7 +5739,7 @@
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>42553</v>
       </c>
@@ -5756,7 +5756,7 @@
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>42554</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>星期日</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>42555</v>
       </c>
@@ -5783,7 +5783,7 @@
       </c>
       <c r="D19" s="25"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>42556</v>
       </c>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="D20" s="25"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>42557</v>
       </c>
@@ -5811,7 +5811,7 @@
       </c>
       <c r="D21" s="25"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>42558</v>
       </c>
@@ -5826,7 +5826,7 @@
       <c r="D22" s="25"/>
       <c r="E22" s="17"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>42559</v>
       </c>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="D23" s="82"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>42560</v>
       </c>
@@ -5854,7 +5854,7 @@
       </c>
       <c r="D24" s="83"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>42561</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>星期日</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
         <v>42562</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>42563</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>星期二</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
         <v>42564</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>星期三</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="18">
         <v>42565</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>星期四</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
         <v>42566</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>星期五</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>42567</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>星期六</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
         <v>42568</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>星期日</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" ht="42.45" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
         <v>42569</v>
       </c>
@@ -5977,7 +5977,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11" ht="42.45" x14ac:dyDescent="0.3">
       <c r="A34" s="18">
         <v>42570</v>
       </c>
@@ -6005,7 +6005,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="18">
         <v>42571</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="18">
         <v>42572</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="18">
         <v>42573</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="18">
         <v>42574</v>
       </c>
@@ -6164,23 +6164,23 @@
       <selection activeCell="E17" sqref="E16:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="3" customWidth="1"/>
-    <col min="5" max="8" width="24.625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="5" customWidth="1"/>
-    <col min="10" max="10" width="18.5" style="4" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9.84375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.15234375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.3828125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.23046875" style="3" customWidth="1"/>
+    <col min="5" max="8" width="24.61328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="18.4609375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="18.4609375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="8.84375" style="4" customWidth="1"/>
     <col min="12" max="12" width="9" style="4"/>
     <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="17.125" style="1"/>
+    <col min="14" max="14" width="17.15234375" style="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="30.45" x14ac:dyDescent="0.3">
       <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
@@ -6189,7 +6189,7 @@
       <c r="D1" s="6"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="71" t="s">
         <v>1</v>
       </c>
@@ -6197,11 +6197,11 @@
       <c r="C2" s="73"/>
       <c r="D2" s="7">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42754</v>
+        <v>42764</v>
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="71" t="s">
         <v>2</v>
       </c>
@@ -6209,15 +6209,15 @@
       <c r="C3" s="73"/>
       <c r="D3" s="8">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.38435000000026776</v>
+        <v>0.93522141203720821</v>
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D4" s="6"/>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I6" s="5" t="s">
         <v>13</v>
       </c>
@@ -6264,10 +6264,10 @@
       </c>
       <c r="N6" s="15">
         <f ca="1">NOW()</f>
-        <v>42754.38435</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+        <v>42764.935221412037</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I7" s="5" t="s">
         <v>16</v>
       </c>
@@ -6279,14 +6279,14 @@
       </c>
       <c r="N7" s="15">
         <f ca="1">ROUNDDOWN(N6,0)</f>
-        <v>42754</v>
+        <v>42764</v>
       </c>
       <c r="O7" s="1">
         <f>ROUNDDOWN(O6,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>42576</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>42577</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>星期二</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>42578</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>星期三</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>42579</v>
       </c>
@@ -6342,7 +6342,7 @@
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>42580</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>星期五</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>42581</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>星期六</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>42582</v>
       </c>
@@ -6385,7 +6385,7 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>42583</v>
       </c>
@@ -6402,7 +6402,7 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>42584</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>星期二</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>42585</v>
       </c>
@@ -6429,7 +6429,7 @@
       </c>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>42586</v>
       </c>
@@ -6443,7 +6443,7 @@
       </c>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>42587</v>
       </c>
@@ -6457,7 +6457,7 @@
       </c>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>42588</v>
       </c>
@@ -6472,7 +6472,7 @@
       <c r="D22" s="11"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>42589</v>
       </c>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="D23" s="74"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>42590</v>
       </c>
@@ -6500,7 +6500,7 @@
       </c>
       <c r="D24" s="75"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>42591</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>星期二</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>42592</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>星期三</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>42593</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>星期四</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>42594</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>星期五</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>42595</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>星期六</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>42596</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>星期日</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>42597</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>星期一</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>42598</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>星期二</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>42599</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>星期三</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>42600</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>星期四</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>42601</v>
       </c>
@@ -6644,7 +6644,7 @@
       </c>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>42602</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>星期六</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>42603</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>星期日</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>42604</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>星期一</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>42605</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>星期二</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>42606</v>
       </c>
@@ -6751,23 +6751,23 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="3" customWidth="1"/>
-    <col min="5" max="8" width="24.625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="5" customWidth="1"/>
-    <col min="10" max="10" width="18.5" style="4" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.84375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.15234375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.4609375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.23046875" style="3" customWidth="1"/>
+    <col min="5" max="8" width="24.61328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="18.4609375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="18.4609375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="8.84375" style="4" customWidth="1"/>
     <col min="12" max="12" width="9" style="4"/>
     <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="17.125" style="1"/>
+    <col min="14" max="14" width="17.15234375" style="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="30.45" x14ac:dyDescent="0.3">
       <c r="A1" s="68" t="s">
         <v>85</v>
       </c>
@@ -6776,7 +6776,7 @@
       <c r="D1" s="6"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="71" t="s">
         <v>1</v>
       </c>
@@ -6784,11 +6784,11 @@
       <c r="C2" s="73"/>
       <c r="D2" s="7">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42754</v>
+        <v>42764</v>
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="71" t="s">
         <v>2</v>
       </c>
@@ -6796,15 +6796,15 @@
       <c r="C3" s="73"/>
       <c r="D3" s="8">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.38435000000026776</v>
+        <v>0.93522141203720821</v>
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D4" s="6"/>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I6" s="5" t="s">
         <v>13</v>
       </c>
@@ -6851,10 +6851,10 @@
       </c>
       <c r="N6" s="15">
         <f ca="1">NOW()</f>
-        <v>42754.38435</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+        <v>42764.935221412037</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I7" s="5" t="s">
         <v>16</v>
       </c>
@@ -6866,14 +6866,14 @@
       </c>
       <c r="N7" s="15">
         <f ca="1">ROUNDDOWN(N6,0)</f>
-        <v>42754</v>
+        <v>42764</v>
       </c>
       <c r="O7" s="1">
         <f>ROUNDDOWN(O6,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>42576</v>
       </c>
@@ -6886,7 +6886,7 @@
         <v>星期一</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>42577</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>星期二</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>42578</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>星期三</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>42579</v>
       </c>
@@ -6926,7 +6926,7 @@
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>42580</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>星期五</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>42581</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>星期六</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>42582</v>
       </c>
@@ -6969,7 +6969,7 @@
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>42583</v>
       </c>
@@ -6986,7 +6986,7 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>42584</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>星期二</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>42585</v>
       </c>
@@ -7013,7 +7013,7 @@
       </c>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>42586</v>
       </c>
@@ -7027,7 +7027,7 @@
       </c>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>42587</v>
       </c>
@@ -7041,7 +7041,7 @@
       </c>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>42588</v>
       </c>
@@ -7056,7 +7056,7 @@
       <c r="D22" s="11"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>42589</v>
       </c>
@@ -7070,7 +7070,7 @@
       </c>
       <c r="D23" s="74"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>42590</v>
       </c>
@@ -7084,7 +7084,7 @@
       </c>
       <c r="D24" s="75"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>42591</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>星期二</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>42592</v>
       </c>
@@ -7110,7 +7110,7 @@
         <v>星期三</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>42593</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>星期四</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>42594</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>星期五</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>42595</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>星期六</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>42596</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>星期日</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>42597</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>星期一</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>42598</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>星期二</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>42599</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>星期三</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>42600</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>星期四</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>42601</v>
       </c>
@@ -7228,7 +7228,7 @@
       </c>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>42602</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>星期六</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>42603</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>星期日</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>42604</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>星期一</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>42605</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>星期二</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>42606</v>
       </c>
@@ -7338,23 +7338,23 @@
       <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.25" style="32" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="33" customWidth="1"/>
-    <col min="6" max="7" width="24.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.84375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.23046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.3828125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.23046875" style="32" customWidth="1"/>
+    <col min="5" max="5" width="18.4609375" style="33" customWidth="1"/>
+    <col min="6" max="7" width="24.61328125" style="4" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="30.45" x14ac:dyDescent="0.3">
       <c r="A1" s="68"/>
       <c r="B1" s="69"/>
       <c r="C1" s="70"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="71" t="s">
         <v>1</v>
       </c>
@@ -7362,10 +7362,10 @@
       <c r="C2" s="73"/>
       <c r="D2" s="34">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42754</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>42764</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="71" t="s">
         <v>2</v>
       </c>
@@ -7373,17 +7373,17 @@
       <c r="C3" s="73"/>
       <c r="D3" s="35">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.38435000000026776</v>
+        <v>0.93522141203720821</v>
       </c>
       <c r="E3" s="33">
         <f ca="1">F3-D2</f>
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="F3" s="44">
         <v>43581</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>42637</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>星期六</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>42638</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>星期日</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>42639</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>星期一</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>42640</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>星期二</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>42641</v>
       </c>
@@ -7471,7 +7471,7 @@
         <v>星期三</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>42642</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>星期四</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>42643</v>
       </c>
@@ -7499,7 +7499,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>42644</v>
       </c>
@@ -7514,7 +7514,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>42645</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>星期日</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>42646</v>
       </c>
@@ -7541,7 +7541,7 @@
       </c>
       <c r="D19" s="38"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>42647</v>
       </c>
@@ -7555,7 +7555,7 @@
       </c>
       <c r="D20" s="38"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>42648</v>
       </c>
@@ -7569,7 +7569,7 @@
       </c>
       <c r="D21" s="38"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>42649</v>
       </c>
@@ -7583,7 +7583,7 @@
       </c>
       <c r="D22" s="38"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>42650</v>
       </c>
@@ -7597,7 +7597,7 @@
       </c>
       <c r="D23" s="39"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>42651</v>
       </c>
@@ -7611,7 +7611,7 @@
       </c>
       <c r="D24" s="40"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>42652</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>星期日</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>42653</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>星期一</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>42654</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>星期二</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>42655</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>星期三</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>42656</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>星期四</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>42657</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>星期五</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>42658</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>42659</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>星期日</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>42660</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>42661</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>星期二</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>42662</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>42663</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>42664</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>42665</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>星期六</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>42666</v>
       </c>
@@ -7869,24 +7869,24 @@
       <selection activeCell="G4" sqref="G4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.75" style="32" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="33" customWidth="1"/>
-    <col min="6" max="6" width="24.625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="83.25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.84375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.23046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.3828125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.765625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="18.4609375" style="33" customWidth="1"/>
+    <col min="6" max="6" width="24.61328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="83.23046875" style="4" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="30.45" x14ac:dyDescent="0.3">
       <c r="A1" s="68"/>
       <c r="B1" s="69"/>
       <c r="C1" s="70"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="71" t="s">
         <v>1</v>
       </c>
@@ -7894,7 +7894,7 @@
       <c r="C2" s="73"/>
       <c r="D2" s="34">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42754</v>
+        <v>42764</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>113</v>
@@ -7915,7 +7915,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="71" t="s">
         <v>2</v>
       </c>
@@ -7923,11 +7923,11 @@
       <c r="C3" s="73"/>
       <c r="D3" s="35">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.38435000000026776</v>
+        <v>0.93522141203720821</v>
       </c>
       <c r="E3" s="47">
         <f ca="1">E4-$D$2</f>
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="F3" s="4">
         <f>SUM(学习任务!E:E)</f>
@@ -7935,14 +7935,14 @@
       </c>
       <c r="G3" s="47">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="H3" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E4" s="46">
         <v>43581</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>43006</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>42667</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="42.45" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>42668</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="56.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>42669</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="42.45" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>42670</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>42671</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>42672</v>
       </c>
@@ -8099,7 +8099,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>42673</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>42674</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="56.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>42675</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>42676</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="42.45" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>42677</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>42678</v>
       </c>
@@ -8212,7 +8212,7 @@
       </c>
       <c r="I21" s="54"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>42679</v>
       </c>
@@ -8230,7 +8230,7 @@
       </c>
       <c r="I22" s="54"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>42680</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>42681</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>42682</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>42683</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>42684</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>42685</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>42686</v>
       </c>
@@ -8353,7 +8353,7 @@
         <v>星期六</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>42687</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>星期日</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>42688</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>42689</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>42690</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>42691</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>42692</v>
       </c>
@@ -8448,7 +8448,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>42693</v>
       </c>
@@ -8461,7 +8461,7 @@
         <v>星期六</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>42694</v>
       </c>
@@ -8475,7 +8475,7 @@
       </c>
       <c r="D37" s="36"/>
     </row>
-    <row r="38" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" ht="42.45" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>42695</v>
       </c>
@@ -8494,7 +8494,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>42696</v>
       </c>
@@ -8513,7 +8513,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>42697</v>
       </c>
@@ -8575,24 +8575,24 @@
       <selection pane="bottomRight" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="32" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="33" customWidth="1"/>
-    <col min="6" max="7" width="24.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.84375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.23046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.3828125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.23046875" style="32" customWidth="1"/>
+    <col min="5" max="5" width="18.4609375" style="33" customWidth="1"/>
+    <col min="6" max="7" width="24.61328125" style="4" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="30.45" x14ac:dyDescent="0.3">
       <c r="A1" s="68"/>
       <c r="B1" s="69"/>
       <c r="C1" s="70"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="71" t="s">
         <v>1</v>
       </c>
@@ -8600,7 +8600,7 @@
       <c r="C2" s="73"/>
       <c r="D2" s="34">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42754</v>
+        <v>42764</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>113</v>
@@ -8621,7 +8621,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="71" t="s">
         <v>2</v>
       </c>
@@ -8629,11 +8629,11 @@
       <c r="C3" s="73"/>
       <c r="D3" s="35">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.38435000000026776</v>
+        <v>0.93522141203720821</v>
       </c>
       <c r="E3" s="47">
         <f ca="1">E4-$D$2</f>
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="F3" s="4">
         <f>SUM(学习任务!E:E)</f>
@@ -8641,20 +8641,20 @@
       </c>
       <c r="G3" s="47">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="H3" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E4" s="46">
         <v>43581</v>
       </c>
       <c r="F4" s="44">
         <f ca="1">$D$2+F3</f>
-        <v>44306.039215686273</v>
+        <v>44316.039215686273</v>
       </c>
       <c r="G4" s="46">
         <v>42762</v>
@@ -8663,7 +8663,7 @@
         <v>43006</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -8686,7 +8686,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>42698</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>42699</v>
       </c>
@@ -8718,7 +8718,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>42700</v>
       </c>
@@ -8734,7 +8734,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>42701</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>42702</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>42703</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>42704</v>
       </c>
@@ -8808,7 +8808,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>42705</v>
       </c>
@@ -8831,7 +8831,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>42706</v>
       </c>
@@ -8850,7 +8850,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>42707</v>
       </c>
@@ -8864,7 +8864,7 @@
       </c>
       <c r="D19" s="38"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>42708</v>
       </c>
@@ -8878,7 +8878,7 @@
       </c>
       <c r="D20" s="38"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>42709</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>42710</v>
       </c>
@@ -8909,7 +8909,7 @@
       </c>
       <c r="D22" s="38"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>42711</v>
       </c>
@@ -8923,7 +8923,7 @@
       </c>
       <c r="D23" s="39"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>42712</v>
       </c>
@@ -8937,7 +8937,7 @@
       </c>
       <c r="D24" s="40"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>42713</v>
       </c>
@@ -8950,7 +8950,7 @@
         <v>星期五</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>42714</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>星期六</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>42715</v>
       </c>
@@ -8976,7 +8976,7 @@
         <v>星期日</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>42716</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>星期一</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>42717</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>星期二</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>42718</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>星期三</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>42719</v>
       </c>
@@ -9029,7 +9029,7 @@
       </c>
       <c r="D31" s="41"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>42720</v>
       </c>
@@ -9042,7 +9042,7 @@
         <v>星期五</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>42721</v>
       </c>
@@ -9056,7 +9056,7 @@
       </c>
       <c r="D33" s="36"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>42722</v>
       </c>
@@ -9069,7 +9069,7 @@
         <v>星期日</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>42723</v>
       </c>
@@ -9082,7 +9082,7 @@
         <v>星期一</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>42724</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>42725</v>
       </c>
@@ -9113,7 +9113,7 @@
       </c>
       <c r="D37" s="36"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>42726</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>42727</v>
       </c>
@@ -9179,31 +9179,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="5" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="32" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="33" customWidth="1"/>
-    <col min="6" max="7" width="24.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.84375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.23046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.3828125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.765625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="18.4609375" style="33" customWidth="1"/>
+    <col min="6" max="7" width="24.61328125" style="4" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="30.45" x14ac:dyDescent="0.3">
       <c r="A1" s="68"/>
       <c r="B1" s="69"/>
       <c r="C1" s="70"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="71" t="s">
         <v>1</v>
       </c>
@@ -9211,7 +9211,7 @@
       <c r="C2" s="73"/>
       <c r="D2" s="34">
         <f ca="1">ROUNDDOWN(NOW(),0)</f>
-        <v>42754</v>
+        <v>42764</v>
       </c>
       <c r="E2" s="48" t="s">
         <v>113</v>
@@ -9232,7 +9232,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="71" t="s">
         <v>2</v>
       </c>
@@ -9240,11 +9240,11 @@
       <c r="C3" s="73"/>
       <c r="D3" s="35">
         <f ca="1">NOW()-ROUNDDOWN(NOW(),0)</f>
-        <v>0.38435000000026776</v>
+        <v>0.93522141203720821</v>
       </c>
       <c r="E3" s="47">
         <f ca="1">E4-$D$2</f>
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="F3" s="4">
         <f>SUM(学习任务!E:E)</f>
@@ -9252,20 +9252,20 @@
       </c>
       <c r="G3" s="47">
         <f t="shared" ref="G3:H3" ca="1" si="0">G4-$D$2</f>
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="H3" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E4" s="46">
         <v>43581</v>
       </c>
       <c r="F4" s="44">
         <f ca="1">$D$2+F3</f>
-        <v>44306.039215686273</v>
+        <v>44316.039215686273</v>
       </c>
       <c r="G4" s="46">
         <v>42762</v>
@@ -9274,7 +9274,7 @@
         <v>43006</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>42728</v>
       </c>
@@ -9311,7 +9311,7 @@
       </c>
       <c r="G10" s="49"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>42729</v>
       </c>
@@ -9325,7 +9325,7 @@
       </c>
       <c r="G11" s="49"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>42730</v>
       </c>
@@ -9339,7 +9339,7 @@
       </c>
       <c r="F12" s="31"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>42731</v>
       </c>
@@ -9353,7 +9353,7 @@
       </c>
       <c r="F13" s="31"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>42732</v>
       </c>
@@ -9371,7 +9371,7 @@
       <c r="E14" s="37"/>
       <c r="G14" s="31"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>42733</v>
       </c>
@@ -9386,7 +9386,7 @@
       <c r="E15" s="37"/>
       <c r="G15" s="31"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>42734</v>
       </c>
@@ -9402,7 +9402,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="52"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>42735</v>
       </c>
@@ -9419,7 +9419,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="51"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>42736</v>
       </c>
@@ -9434,7 +9434,7 @@
       <c r="E18" s="37"/>
       <c r="G18" s="49"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>42737</v>
       </c>
@@ -9448,7 +9448,7 @@
       </c>
       <c r="D19" s="38"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>42738</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="28.3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>42739</v>
       </c>
@@ -9482,7 +9482,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>42740</v>
       </c>
@@ -9496,7 +9496,7 @@
       </c>
       <c r="D22" s="38"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>42741</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>42742</v>
       </c>
@@ -9526,7 +9526,7 @@
       </c>
       <c r="D24" s="40"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>42743</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>星期日</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>42744</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>星期一</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>42745</v>
       </c>
@@ -9565,7 +9565,7 @@
         <v>星期二</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="56.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>42746</v>
       </c>
@@ -9581,7 +9581,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>42747</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>星期四</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="42.45" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>42748</v>
       </c>
@@ -9610,7 +9610,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>42749</v>
       </c>
@@ -9625,7 +9625,7 @@
       <c r="D31" s="41"/>
       <c r="F31" s="31"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>42750</v>
       </c>
@@ -9638,7 +9638,7 @@
         <v>星期日</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>42751</v>
       </c>
@@ -9655,7 +9655,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>42752</v>
       </c>
@@ -9671,7 +9671,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>42753</v>
       </c>
@@ -9687,7 +9687,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>42754</v>
       </c>
@@ -9703,7 +9703,7 @@
       <c r="E36" s="37"/>
       <c r="F36" s="31"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>42755</v>
       </c>
@@ -9717,7 +9717,7 @@
       </c>
       <c r="D37" s="36"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>42756</v>
       </c>
@@ -9730,7 +9730,7 @@
         <v>星期六</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>42757</v>
       </c>
@@ -9743,7 +9743,7 @@
         <v>星期日</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>42758</v>
       </c>
